--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>STT</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Chỉnh lại NULL thuộc tính nha_cung_cap_id trong tbl_PhieuNhap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLGT ????? Thêm được mà </t>
   </si>
 </sst>
 </file>
@@ -465,7 +468,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,7 +573,9 @@
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1">
@@ -580,8 +585,8 @@
         <v>8</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -621,8 +626,8 @@
         <v>11</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>15</v>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E11" s="2"/>
     </row>

--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -73,13 +73,19 @@
   </si>
   <si>
     <t xml:space="preserve">CLGT ????? Thêm được mà </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Tab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +117,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -156,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,6 +182,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -467,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -531,8 +547,8 @@
         <v>14</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -544,8 +560,8 @@
         <v>13</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -557,8 +573,8 @@
         <v>6</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -570,8 +586,8 @@
         <v>7</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -601,7 +617,9 @@
       <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1">

--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>STT</t>
   </si>
@@ -51,9 +51,6 @@
     <t>thêm phiếu nhập lỗi, chỉ thêm dc chứng từ</t>
   </si>
   <si>
-    <t>các danh sách hóa đơn nên sort theo ngày lập giảm dần</t>
-  </si>
-  <si>
     <t>làm menu 2 cấp  ==&gt;Sản phẩm tặng</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Tab</t>
+  </si>
+  <si>
+    <t>lỗi cập nhật password nhân viên</t>
   </si>
 </sst>
 </file>
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -165,11 +165,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,6 +198,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -522,7 +537,7 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -531,11 +546,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -544,11 +559,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -557,11 +572,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -574,7 +589,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -587,10 +602,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -602,7 +617,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -615,10 +630,10 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -630,10 +645,10 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -641,13 +656,24 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>lỗi cập nhật password nhân viên</t>
+  </si>
+  <si>
+    <t>xuất mốc giá file excel</t>
+  </si>
+  <si>
+    <t>đồng bộ hiển thị giữa chi tiết trong web và file excel</t>
+  </si>
+  <si>
+    <t>tắt chức năng chỉnh sửa thao tác trong phân quyền</t>
   </si>
 </sst>
 </file>
@@ -180,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,6 +211,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -511,7 +521,7 @@
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -673,6 +683,25 @@
       </c>
       <c r="D12" s="4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -151,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,17 +172,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -207,11 +196,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +498,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -521,7 +510,7 @@
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75">
+    <row r="1" spans="1:5">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -546,8 +535,8 @@
         <v>5</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -678,12 +667,14 @@
       <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C12" s="8"/>
       <c r="D12" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7">
@@ -692,7 +683,11 @@
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E13" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -703,6 +698,11 @@
       <c r="B14" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>STT</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>tắt chức năng chỉnh sửa thao tác trong phân quyền</t>
+  </si>
+  <si>
+    <t>chỉnh lại lần đăng nhập cuối</t>
+  </si>
+  <si>
+    <t>xuất excel nhân viên không đúng theo kết quả lọc</t>
+  </si>
+  <si>
+    <t>xuất chi nhánh chưa có</t>
+  </si>
+  <si>
+    <t>xuất excel chi nhánh không đúng theo kết quả lọc</t>
   </si>
 </sst>
 </file>
@@ -506,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -702,6 +714,38 @@
       </c>
       <c r="B14" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/testting/bang_test_loi.xlsx
+++ b/testting/bang_test_loi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>STT</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>xuất excel chi nhánh không đúng theo kết quả lọc</t>
+  </si>
+  <si>
+    <t>không cho tùy chỉnh loại khách hàng lúc thêm, edit</t>
+  </si>
+  <si>
+    <t>lúc thêm mặc định là khách lẻ</t>
+  </si>
+  <si>
+    <t>header chi tiết phiếu nhập nên để là mã chứng từ thay cho id</t>
+  </si>
+  <si>
+    <t>trong chi tiet phieu nhap thieu thong tin nha cung cap</t>
+  </si>
+  <si>
+    <t>xuất file excel danh sách chi nhánh trong module nhập xuất chưa hoàn chỉnh</t>
+  </si>
+  <si>
+    <t>báo cáo doanh thu theo chi nhánh: phần chọn tất cả chi nhánh hình như chưa làm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nếu rảnh </t>
+  </si>
+  <si>
+    <t>báo cáo: chỉnh header thể hiện biễu đồ đang biễu diễn về sản phẩm j, chi nhánh nào…</t>
+  </si>
+  <si>
+    <t>tắt hiển thị phần thao tác trong phân quyền</t>
   </si>
 </sst>
 </file>
@@ -201,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -224,6 +251,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,16 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="58.140625" bestFit="1" customWidth="1"/>
@@ -732,7 +762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:5">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -740,12 +770,74 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:5">
       <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="10">
+        <v>18</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="10">
+        <v>19</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="10">
+        <v>20</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="10">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="10">
+        <v>22</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="10">
+        <v>23</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="10">
+        <v>24</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
